--- a/data/bani_acts.xlsx
+++ b/data/bani_acts.xlsx
@@ -34,7 +34,7 @@
     <t>급하게</t>
   </si>
   <si>
-    <t>당근</t>
+    <t>당근을</t>
   </si>
   <si>
     <t>주운</t>
@@ -49,7 +49,7 @@
     <t>여유롭게</t>
   </si>
   <si>
-    <t>네잎클로버</t>
+    <t>네잎클로버를</t>
   </si>
   <si>
     <t>훔친</t>
@@ -64,7 +64,7 @@
     <t>느긋하게</t>
   </si>
   <si>
-    <t>사과</t>
+    <t>사과를</t>
   </si>
   <si>
     <t>바리바리 싸온</t>
@@ -79,7 +79,7 @@
     <t>잽싸게</t>
   </si>
   <si>
-    <t>도토리</t>
+    <t>도토리를</t>
   </si>
   <si>
     <t>끌고 온</t>
@@ -94,7 +94,7 @@
     <t>조심히</t>
   </si>
   <si>
-    <t>산딸기</t>
+    <t>산딸기를</t>
   </si>
   <si>
     <t>드리블 해 온</t>
@@ -109,7 +109,7 @@
     <t>험악하게</t>
   </si>
   <si>
-    <t>알밤</t>
+    <t>알밤을</t>
   </si>
   <si>
     <t>서리해 온</t>
@@ -124,7 +124,7 @@
     <t>늠름하게</t>
   </si>
   <si>
-    <t>막걸리</t>
+    <t>막걸리를</t>
   </si>
   <si>
     <t>구입해 온</t>
@@ -139,7 +139,7 @@
     <t>방귀를 뀌며</t>
   </si>
   <si>
-    <t>강아지</t>
+    <t>강아지를</t>
   </si>
   <si>
     <t>빌림을 가장해 아무말 없이 가져온</t>
@@ -154,7 +154,7 @@
     <t>요란하게</t>
   </si>
   <si>
-    <t>고양이</t>
+    <t>고양이를</t>
   </si>
   <si>
     <t>입에 숨겨 온</t>
@@ -169,7 +169,7 @@
     <t>헛기침을 하며</t>
   </si>
   <si>
-    <t>고릴라</t>
+    <t>고릴라를</t>
   </si>
   <si>
     <t>구걸해 온</t>
@@ -181,7 +181,7 @@
     <t>슬그머니</t>
   </si>
   <si>
-    <t>천원</t>
+    <t>천원을</t>
   </si>
   <si>
     <t>수집해 온</t>
@@ -196,7 +196,7 @@
     <t>아련한 눈빛으로</t>
   </si>
   <si>
-    <t>오천원</t>
+    <t>오천원을</t>
   </si>
   <si>
     <t>슬쩍해 온</t>
@@ -208,7 +208,7 @@
     <t>당당하게</t>
   </si>
   <si>
-    <t>만원</t>
+    <t>만원을</t>
   </si>
   <si>
     <t>득템한</t>
@@ -220,7 +220,7 @@
     <t>안절부절하며</t>
   </si>
   <si>
-    <t>오만원</t>
+    <t>오만원을</t>
   </si>
   <si>
     <t>할인행사에서 사 온</t>
@@ -232,7 +232,7 @@
     <t>포효하며</t>
   </si>
   <si>
-    <t>빈대떡</t>
+    <t>빈대떡을</t>
   </si>
   <si>
     <t>다른 바니에게 빌려줬던</t>
@@ -244,7 +244,7 @@
     <t>멋쩍게</t>
   </si>
   <si>
-    <t>방울토마토</t>
+    <t>방울토마토를</t>
   </si>
   <si>
     <t>버스정류장</t>
@@ -253,7 +253,7 @@
     <t>깡총깡총 뛰어 가</t>
   </si>
   <si>
-    <t>지우개</t>
+    <t>지우개를</t>
   </si>
   <si>
     <t>동물원</t>
@@ -262,94 +262,94 @@
     <t>좌우를 살피며</t>
   </si>
   <si>
-    <t>장미</t>
+    <t>장미를</t>
   </si>
   <si>
     <t>경훈형의 컴퓨터 서랍</t>
   </si>
   <si>
-    <t>제비꽃</t>
+    <t>제비꽃을</t>
   </si>
   <si>
     <t>기표삼촌의 뒷주머니</t>
   </si>
   <si>
-    <t>강아지풀</t>
+    <t>강아지풀을</t>
   </si>
   <si>
     <t>영석삼촌의 고물트럭</t>
   </si>
   <si>
-    <t>토끼풀</t>
+    <t>토끼풀을</t>
   </si>
   <si>
     <t>수빈언니의 전신거울 밑</t>
   </si>
   <si>
-    <t>개똥</t>
+    <t>개똥을</t>
   </si>
   <si>
     <t>상원삼촌의 은밀한 잡지 사이</t>
   </si>
   <si>
-    <t>코딱지</t>
+    <t>코딱지를</t>
   </si>
   <si>
     <t>지용삼촌의 이삿짐</t>
   </si>
   <si>
-    <t>타조</t>
+    <t>타조를</t>
   </si>
   <si>
     <t>가연이모네 고무다라이 밑</t>
   </si>
   <si>
-    <t>리어카</t>
-  </si>
-  <si>
-    <t>가발</t>
-  </si>
-  <si>
-    <t>신발 한 짝</t>
-  </si>
-  <si>
-    <t>돈벌레</t>
-  </si>
-  <si>
-    <t>뚝배기</t>
-  </si>
-  <si>
-    <t>볶음밥</t>
-  </si>
-  <si>
-    <t>못생김 한 줌</t>
-  </si>
-  <si>
-    <t>알 수 없는 물건(?)</t>
-  </si>
-  <si>
-    <t>먼지 한 톨</t>
-  </si>
-  <si>
-    <t>씹던 껌</t>
-  </si>
-  <si>
-    <t>낡은 모자</t>
-  </si>
-  <si>
-    <t>떡볶이</t>
-  </si>
-  <si>
-    <t>치킨 다리</t>
-  </si>
-  <si>
-    <t>닭가슴살</t>
-  </si>
-  <si>
-    <t>훈제 오리</t>
-  </si>
-  <si>
-    <t>양꼬치</t>
+    <t>리어카를</t>
+  </si>
+  <si>
+    <t>가발을</t>
+  </si>
+  <si>
+    <t>신발 한 짝을</t>
+  </si>
+  <si>
+    <t>돈벌레를</t>
+  </si>
+  <si>
+    <t>뚝배기를</t>
+  </si>
+  <si>
+    <t>볶음밥을</t>
+  </si>
+  <si>
+    <t>못생김 한 줌을</t>
+  </si>
+  <si>
+    <t>알 수 없는 물건(?)을</t>
+  </si>
+  <si>
+    <t>먼지 한 톨을</t>
+  </si>
+  <si>
+    <t>씹던 껌을</t>
+  </si>
+  <si>
+    <t>낡은 모자를</t>
+  </si>
+  <si>
+    <t>떡볶이를</t>
+  </si>
+  <si>
+    <t>치킨 다리를</t>
+  </si>
+  <si>
+    <t>닭가슴살을</t>
+  </si>
+  <si>
+    <t>훈제 오리를</t>
+  </si>
+  <si>
+    <t>양꼬치를</t>
   </si>
 </sst>
 </file>
